--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>0.06540954111496207</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.010085421288168</v>
+        <v>-1.616151074431486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2960020904311996</v>
+        <v>-0.1482159467786227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.041956710310745</v>
+        <v>0.0742282232381615</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09133023084269556</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.088618807626248</v>
+        <v>-1.859593593507352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1305769648008843</v>
+        <v>-0.2442314894743322</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.005494508419577156</v>
+        <v>0.04217506191302081</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1243512431816552</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.295266032115257</v>
+        <v>-1.945940673635251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08730980191305385</v>
+        <v>-0.3368808799550692</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0246551664796174</v>
+        <v>-0.02789079566976584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1592698962105527</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.332233324332957</v>
+        <v>-2.043644476764199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1254084969861213</v>
+        <v>-0.2433050199663519</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03132037963512017</v>
+        <v>0.01801488406567674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1937917835837397</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.331126318304659</v>
+        <v>-1.915839258475704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09350049678204664</v>
+        <v>-0.3006509818355578</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02624522968389958</v>
+        <v>-0.02906855249656634</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2263443396667455</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.03867789269344</v>
+        <v>-1.590356309170457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1709158985196474</v>
+        <v>-0.0766149188524612</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06871400640586686</v>
+        <v>0.006178763412703925</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2573523813348482</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.827595934963795</v>
+        <v>-1.364961952840242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1825495255079398</v>
+        <v>-0.06794184682910381</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0155136753765175</v>
+        <v>-0.02079436859580219</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2877396139946355</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.363817741650663</v>
+        <v>-1.013792804154427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2450962809877764</v>
+        <v>0.04399384537108351</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04913128323751696</v>
+        <v>-0.1774903095004992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3224454458484776</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7576633250815241</v>
+        <v>-0.6201737862876234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2735387119065686</v>
+        <v>0.1007811199003882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006432490414231117</v>
+        <v>-0.1316334234191965</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3695222779813081</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3319758978726614</v>
+        <v>-0.2758863725975564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1412944909327012</v>
+        <v>0.08498112476922975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02616647391041453</v>
+        <v>0.04089422849184988</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4365758202746024</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3553717691058556</v>
+        <v>0.4707962075770418</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01434377151233018</v>
+        <v>0.01765381102504189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1494899950661649</v>
+        <v>0.1714020052990156</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5288916358031989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9057245429593144</v>
+        <v>0.8677673494832525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06785706785503584</v>
+        <v>0.1088887954564001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2162086079749582</v>
+        <v>0.2374198193502254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6495917088568595</v>
       </c>
       <c r="E14" t="n">
-        <v>1.424094906286135</v>
+        <v>1.334603075148923</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3815911151640856</v>
+        <v>-0.2609207489521894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3813690280315647</v>
+        <v>0.4907833081540756</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7961676255147017</v>
       </c>
       <c r="E15" t="n">
-        <v>1.990085436370738</v>
+        <v>2.009078976165349</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7551998554681387</v>
+        <v>-0.6344666674265375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4227167705496691</v>
+        <v>0.5166323563553351</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9584333247261627</v>
       </c>
       <c r="E16" t="n">
-        <v>2.679417785231393</v>
+        <v>2.844046354457875</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9929347368509968</v>
+        <v>-0.9718424600076955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5326421641992949</v>
+        <v>0.6157316579926828</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.125889436602441</v>
       </c>
       <c r="E17" t="n">
-        <v>3.142944081305028</v>
+        <v>3.198738404972587</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.329690850024579</v>
+        <v>-1.137618290027141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5985569016561342</v>
+        <v>0.6165959155916347</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.290877216934928</v>
       </c>
       <c r="E18" t="n">
-        <v>3.678648390265029</v>
+        <v>3.845392164398474</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.570456427250198</v>
+        <v>-1.358405915485877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7188222805386698</v>
+        <v>0.6787279250112827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.448105016320102</v>
       </c>
       <c r="E19" t="n">
-        <v>3.964654833688436</v>
+        <v>4.08234146794968</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.851917131869801</v>
+        <v>-1.71013253167024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8842730228374085</v>
+        <v>0.9560381194256152</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.596130406372467</v>
       </c>
       <c r="E20" t="n">
-        <v>4.258986694349453</v>
+        <v>4.513695668166209</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.07119642349494</v>
+        <v>-1.899980101038901</v>
       </c>
       <c r="G20" t="n">
-        <v>1.154755155275546</v>
+        <v>1.131614154879048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.732504049915538</v>
       </c>
       <c r="E21" t="n">
-        <v>4.587064246213586</v>
+        <v>4.930575230882154</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.398052304243547</v>
+        <v>-2.16802011108734</v>
       </c>
       <c r="G21" t="n">
-        <v>1.286738940120443</v>
+        <v>1.305884960084241</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.853049646130586</v>
       </c>
       <c r="E22" t="n">
-        <v>4.887032993769109</v>
+        <v>5.189435324824857</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.624422533656559</v>
+        <v>-2.585806625849609</v>
       </c>
       <c r="G22" t="n">
-        <v>1.325070014971351</v>
+        <v>1.226994160229586</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.956187218584748</v>
       </c>
       <c r="E23" t="n">
-        <v>5.171257248975058</v>
+        <v>5.369662005438494</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.801551427152992</v>
+        <v>-2.75549936645513</v>
       </c>
       <c r="G23" t="n">
-        <v>1.558682442500069</v>
+        <v>1.49022067629713</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.0423913960975</v>
       </c>
       <c r="E24" t="n">
-        <v>5.302143786522485</v>
+        <v>5.509248451519055</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.950500765542312</v>
+        <v>-2.903030639271011</v>
       </c>
       <c r="G24" t="n">
-        <v>1.650668239284504</v>
+        <v>1.632714614243748</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.110030433607233</v>
       </c>
       <c r="E25" t="n">
-        <v>5.516826106006973</v>
+        <v>5.746745463837981</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.121050444698664</v>
+        <v>-3.094168190870994</v>
       </c>
       <c r="G25" t="n">
-        <v>1.706674815347571</v>
+        <v>1.656978478606139</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.155316651207696</v>
       </c>
       <c r="E26" t="n">
-        <v>5.578067021317891</v>
+        <v>5.600829260974129</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.266166736594962</v>
+        <v>-3.201643838122461</v>
       </c>
       <c r="G26" t="n">
-        <v>1.716506126736073</v>
+        <v>1.748046344772069</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.176107827529779</v>
       </c>
       <c r="E27" t="n">
-        <v>5.715892016484004</v>
+        <v>5.647238125267889</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.219947557631671</v>
+        <v>-3.180205126334767</v>
       </c>
       <c r="G27" t="n">
-        <v>1.721714239394825</v>
+        <v>1.689440286784701</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.169849715582327</v>
       </c>
       <c r="E28" t="n">
-        <v>5.714903944987672</v>
+        <v>5.613660772171555</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.208006835582635</v>
+        <v>-3.185459288004613</v>
       </c>
       <c r="G28" t="n">
-        <v>1.731350986087444</v>
+        <v>1.706110638721579</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.134241639262897</v>
       </c>
       <c r="E29" t="n">
-        <v>5.72051033584834</v>
+        <v>5.487815838938128</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.35739226725583</v>
+        <v>-3.251664042743246</v>
       </c>
       <c r="G29" t="n">
-        <v>1.749158840086457</v>
+        <v>1.68805820653119</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.071112943759334</v>
       </c>
       <c r="E30" t="n">
-        <v>5.679133317137752</v>
+        <v>5.482574180642155</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.282185388288734</v>
+        <v>-3.119129499527247</v>
       </c>
       <c r="G30" t="n">
-        <v>1.715077082590452</v>
+        <v>1.616937186177629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.982139175349332</v>
       </c>
       <c r="E31" t="n">
-        <v>5.611644374414226</v>
+        <v>5.324072874534284</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.237043939161257</v>
+        <v>-3.128728736098246</v>
       </c>
       <c r="G31" t="n">
-        <v>1.607822531584306</v>
+        <v>1.440767087985044</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.868571918761293</v>
       </c>
       <c r="E32" t="n">
-        <v>5.401597452073022</v>
+        <v>4.934661699416365</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.22226586612399</v>
+        <v>-3.101919367791447</v>
       </c>
       <c r="G32" t="n">
-        <v>1.519331580277638</v>
+        <v>1.410909031175519</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.734208823560089</v>
       </c>
       <c r="E33" t="n">
-        <v>5.211569346184044</v>
+        <v>4.600406870938127</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.262837179620594</v>
+        <v>-3.159605970358617</v>
       </c>
       <c r="G33" t="n">
-        <v>1.422150479168663</v>
+        <v>1.234232088900556</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.584099990671295</v>
       </c>
       <c r="E34" t="n">
-        <v>4.994239970962469</v>
+        <v>4.122446192128572</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.086654578054135</v>
+        <v>-2.794090267514333</v>
       </c>
       <c r="G34" t="n">
-        <v>1.315436317882115</v>
+        <v>1.061901441368099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.422627963045214</v>
       </c>
       <c r="E35" t="n">
-        <v>4.751583029718255</v>
+        <v>3.890755624652287</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.042341706166019</v>
+        <v>-2.758677053180988</v>
       </c>
       <c r="G35" t="n">
-        <v>1.285881391648935</v>
+        <v>1.020952586972588</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.254996794969657</v>
       </c>
       <c r="E36" t="n">
-        <v>4.539536787398671</v>
+        <v>3.593209482024807</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.997112428461091</v>
+        <v>-2.528994954493234</v>
       </c>
       <c r="G36" t="n">
-        <v>1.246910510008117</v>
+        <v>0.9754647029007176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.088320256507448</v>
       </c>
       <c r="E37" t="n">
-        <v>4.188455467290307</v>
+        <v>3.185387241358572</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.02363299932745</v>
+        <v>-2.551678514382171</v>
       </c>
       <c r="G37" t="n">
-        <v>1.189876827525407</v>
+        <v>0.9537210307746493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9273447735236704</v>
       </c>
       <c r="E38" t="n">
-        <v>3.92112601483028</v>
+        <v>3.002073142279237</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.976302544891124</v>
+        <v>-2.407332247340269</v>
       </c>
       <c r="G38" t="n">
-        <v>1.142604925474048</v>
+        <v>0.9580722048825699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7751461160523806</v>
       </c>
       <c r="E39" t="n">
-        <v>3.639415852653887</v>
+        <v>2.880692828399605</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.003833754318854</v>
+        <v>-2.327291137089268</v>
       </c>
       <c r="G39" t="n">
-        <v>1.032993031052271</v>
+        <v>0.7761218884364428</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6360281736857817</v>
       </c>
       <c r="E40" t="n">
-        <v>3.389788737915795</v>
+        <v>2.625676454561768</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.03667554307903</v>
+        <v>-2.314267500878666</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9176436128243249</v>
+        <v>0.7210869160114354</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5111306155245787</v>
       </c>
       <c r="E41" t="n">
-        <v>3.074980620294992</v>
+        <v>2.283258447745934</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.917282655724583</v>
+        <v>-2.078458139072302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9021802939067315</v>
+        <v>0.6906988381338168</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3997957996548664</v>
       </c>
       <c r="E42" t="n">
-        <v>2.722902689800822</v>
+        <v>1.889981595378786</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.96846719891728</v>
+        <v>-2.146499669928962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8746118793177192</v>
+        <v>0.6239552184772769</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3016042947452945</v>
       </c>
       <c r="E43" t="n">
-        <v>2.515350343027519</v>
+        <v>1.838046239833012</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.820390657016386</v>
+        <v>-1.819933501501809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7948263258302756</v>
+        <v>0.5556880169702202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2145070544100759</v>
       </c>
       <c r="E44" t="n">
-        <v>2.150478716417882</v>
+        <v>1.402787327443942</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.740268427315378</v>
+        <v>-1.804686094503785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.818297903233571</v>
+        <v>0.6913630417507954</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1355576389525233</v>
       </c>
       <c r="E45" t="n">
-        <v>1.976820271572144</v>
+        <v>1.253458618393685</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.76139790931996</v>
+        <v>-1.804297575032696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7338604847445699</v>
+        <v>0.5559667507194941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.06241677631510973</v>
       </c>
       <c r="E46" t="n">
-        <v>1.70781170748903</v>
+        <v>1.136472173069347</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.721407240307621</v>
+        <v>-1.756058948708692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6591799673215074</v>
+        <v>0.4416578571660801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.006544238042680055</v>
       </c>
       <c r="E47" t="n">
-        <v>1.508940971628558</v>
+        <v>0.8934157337818619</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.646310147062339</v>
+        <v>-1.659064483326802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5490380518316361</v>
+        <v>0.4227088415808714</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.07268431729569559</v>
       </c>
       <c r="E48" t="n">
-        <v>1.345621292174377</v>
+        <v>0.8957187942572625</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.641042262177266</v>
+        <v>-1.595728490491254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4972887220922704</v>
+        <v>0.4372194644013844</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1367878381163267</v>
       </c>
       <c r="E49" t="n">
-        <v>1.179467921256024</v>
+        <v>0.8248496711431986</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.606945866585019</v>
+        <v>-1.595038670205852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4227405574560623</v>
+        <v>0.3814995510563889</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.198675903859123</v>
       </c>
       <c r="E50" t="n">
-        <v>1.047767139605139</v>
+        <v>0.760124279006018</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.585920071095484</v>
+        <v>-1.551121331876608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3516988267904788</v>
+        <v>0.3090001099733775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2581320120242082</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7853481585136107</v>
+        <v>0.5532123489432998</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.490214978024239</v>
+        <v>-1.454783141142898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2649491990159257</v>
+        <v>0.2461563231239646</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3145714999829544</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6400931096633538</v>
+        <v>0.5415890906065122</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.461828049887031</v>
+        <v>-1.450567979345893</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2087346400020875</v>
+        <v>0.1850575193307279</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3673160929672805</v>
       </c>
       <c r="E53" t="n">
-        <v>0.441764593284511</v>
+        <v>0.3252008229891594</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.4467093361518</v>
+        <v>-1.441988225186078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1984391789785802</v>
+        <v>0.1683158066746704</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4157923320727953</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2746219310284732</v>
+        <v>0.1235531182874537</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.399483178151198</v>
+        <v>-1.454143944273667</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1166122209860608</v>
+        <v>0.1405949119164712</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4587334832463543</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2233867644196061</v>
+        <v>0.2004555767359093</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.35665637799198</v>
+        <v>-1.46526157836943</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07249116915078303</v>
+        <v>0.1594591485276119</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4962179723060359</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1286642535586024</v>
+        <v>0.1748736737910655</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.377824894919875</v>
+        <v>-1.418929564080941</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01134967091017396</v>
+        <v>0.06820647639662793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5288873335599219</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04789375418439515</v>
+        <v>0.05393494248140011</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.371435365910262</v>
+        <v>-1.40363458327013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03125077267178634</v>
+        <v>0.1234622401066182</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5574364166809672</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2001494725623663</v>
+        <v>-0.02729856269264348</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.301643972632012</v>
+        <v>-1.335492415501806</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0370902292371568</v>
+        <v>0.04521307680390289</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5834409445658055</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2909532430752637</v>
+        <v>-0.003278056680274713</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.376897815491217</v>
+        <v>-1.45596638725579</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.06901347745815016</v>
+        <v>0.08211815711257438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6086357971957642</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4837327011370526</v>
+        <v>-0.2009033345188269</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.43412057338372</v>
+        <v>-1.450990044454202</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07919305355307524</v>
+        <v>0.03979637127370338</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6342102707009322</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5909469973785333</v>
+        <v>-0.2141282445527551</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.409854879259298</v>
+        <v>-1.402963670525707</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1131058630216208</v>
+        <v>0.07211423817255273</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6610063417285059</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6063487143077753</v>
+        <v>-0.1958659996495647</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.387175588815099</v>
+        <v>-1.262994194260148</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1617659445332576</v>
+        <v>-0.007297433940044415</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6899542434975543</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8047620096606859</v>
+        <v>-0.2173461860432779</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.47646126676357</v>
+        <v>-1.337415495395593</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1784436155182565</v>
+        <v>0.04089971777794062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7201839306696755</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9130900210579085</v>
+        <v>-0.3524405663395889</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.452927477451246</v>
+        <v>-1.433629872231922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1966027838270764</v>
+        <v>0.01230602653131492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7497053400719259</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.072029860132362</v>
+        <v>-0.2535699849560217</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.448906270429446</v>
+        <v>-1.545774767224234</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2043188903086161</v>
+        <v>0.04278010322435488</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7775731820021075</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.22663804256055</v>
+        <v>-0.3201092811858511</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.479636513806721</v>
+        <v>-1.650010820801154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2733076279762657</v>
+        <v>-0.1169703204294965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8022394829763674</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.372382247793559</v>
+        <v>-0.3201977196839796</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.376756313894212</v>
+        <v>-1.612855673015016</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2691607772950556</v>
+        <v>-0.12801293428202</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8215099377348024</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.490572676533798</v>
+        <v>-0.3975643277674405</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.423495755194769</v>
+        <v>-1.665682122669519</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.313473954143509</v>
+        <v>-0.145542664452436</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8355069555241207</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.618928653193396</v>
+        <v>-0.2375949425906366</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.45210164485493</v>
+        <v>-1.828096679839406</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3045367864671197</v>
+        <v>-0.1199302654737548</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8444664603638159</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.760326563683899</v>
+        <v>-0.2213070109180797</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.388260027778357</v>
+        <v>-1.678693560466585</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3100443701781547</v>
+        <v>-0.09521140028650948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8479052151335631</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.832723538093216</v>
+        <v>-0.3552016772432274</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.394917311965062</v>
+        <v>-1.883712296748677</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.366544372068711</v>
+        <v>-0.1784905794103661</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8460716564622444</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.889277822924003</v>
+        <v>-0.2191777778355523</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.421889224132215</v>
+        <v>-1.965126338443038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4312057225348331</v>
+        <v>-0.2765371579596466</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8393286835476574</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.914917668333138</v>
+        <v>-0.04611156596693733</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.354804658817372</v>
+        <v>-1.936543625768594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4670666186449119</v>
+        <v>-0.3326968241125776</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8271896244327963</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.925085655935205</v>
+        <v>-0.05680408535100753</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.418839620748474</v>
+        <v>-2.103668600325006</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4476455244559003</v>
+        <v>-0.3148859205101808</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8089467497185706</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.888092137128405</v>
+        <v>-0.102339543235664</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.326579359659502</v>
+        <v>-2.084857426812742</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4869286854832124</v>
+        <v>-0.2855633740548411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.784829666034179</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.777415321205026</v>
+        <v>0.1002944032003432</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.276792754657912</v>
+        <v>-2.0912798915389</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.442105005028321</v>
+        <v>-0.268259314534822</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7541315435508549</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.62924729120262</v>
+        <v>0.1104855677881265</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.162734538502642</v>
+        <v>-1.955390174680109</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4654820447267205</v>
+        <v>-0.2630938963234427</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7158882379410739</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.529522210950929</v>
+        <v>0.2859896326017035</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.12887906157771</v>
+        <v>-1.993602924919728</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4335734346019691</v>
+        <v>-0.2400547526799615</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6704130791350972</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.351695568200295</v>
+        <v>0.4999327282259732</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.061548698230139</v>
+        <v>-1.954642411930416</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4161925250766797</v>
+        <v>-0.2667479310978403</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6176534383022463</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.204485113660384</v>
+        <v>0.5111540488367841</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.018686522671669</v>
+        <v>-2.02651119503367</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3832257025777704</v>
+        <v>-0.2428744159685678</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5573025294013174</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8936317217076152</v>
+        <v>0.6837536713876867</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.917856876074387</v>
+        <v>-1.807960758617245</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3399713480241516</v>
+        <v>-0.2053630745072088</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.489908696683569</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6698353575504805</v>
+        <v>0.8718916330994229</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.963852824069988</v>
+        <v>-1.949862463586741</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2978551054533448</v>
+        <v>-0.1188647340514759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4163085319893911</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3964256058639519</v>
+        <v>0.9823427783724055</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.902086767056389</v>
+        <v>-1.97053328524241</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2819532535691694</v>
+        <v>-0.1306435221608344</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3375843626104331</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.150556212415305</v>
+        <v>1.122741638794394</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.748461776759119</v>
+        <v>-1.712959514006968</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.275320976130211</v>
+        <v>-0.1754470752333933</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2560860300628136</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1444160649562978</v>
+        <v>1.285946653161347</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.62870141219693</v>
+        <v>-1.564634734390638</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.227358643872774</v>
+        <v>-0.2357816484186646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1754210777268349</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3571228513687992</v>
+        <v>1.388781109023099</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.477297753004376</v>
+        <v>-1.265116108294555</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.232911971634565</v>
+        <v>-0.2019694758617825</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09936237645867037</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6007696938713761</v>
+        <v>1.563876526983255</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.402920366157658</v>
+        <v>-1.20388007234905</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1516943243981169</v>
+        <v>-0.1500078937269085</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03208155896921812</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7922896657356804</v>
+        <v>1.674622263943107</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.281627880855478</v>
+        <v>-1.129567947014743</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07521881042338489</v>
+        <v>-0.0006322207845416382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02079206035939254</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8824457004898713</v>
+        <v>1.585212772097256</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.051961030184644</v>
+        <v>-0.8867780430629973</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07223019910731941</v>
+        <v>-0.09320415133933163</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05480393813634665</v>
       </c>
       <c r="E90" t="n">
-        <v>1.002495167452838</v>
+        <v>1.631397185581972</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9966387851208878</v>
+        <v>-0.968432393503997</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03828872336696674</v>
+        <v>-0.04065704535477944</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06741479512555613</v>
       </c>
       <c r="E91" t="n">
-        <v>1.041573395132763</v>
+        <v>1.585506143942772</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7089404217401823</v>
+        <v>-0.5490271492656392</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04999127139173172</v>
+        <v>-0.08262385735978307</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0576191115490603</v>
       </c>
       <c r="E92" t="n">
-        <v>1.048688119827029</v>
+        <v>1.503500479191965</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4515978104412277</v>
+        <v>-0.5250121325393612</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08533800437131192</v>
+        <v>-0.1386060365957803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02775930236945415</v>
       </c>
       <c r="E93" t="n">
-        <v>1.161094060868989</v>
+        <v>1.514643729956152</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2577875864357346</v>
+        <v>-0.2531241329413189</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06527832323374505</v>
+        <v>-0.09419588235972397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01657291143348942</v>
       </c>
       <c r="E94" t="n">
-        <v>1.214676202241983</v>
+        <v>1.53958521619041</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03347339962404082</v>
+        <v>-0.08887188477239018</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1121513371625101</v>
+        <v>-0.1737685735309826</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06796033651697055</v>
       </c>
       <c r="E95" t="n">
-        <v>1.212711647742177</v>
+        <v>1.499076724523511</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151715883475819</v>
+        <v>-0.07261627889570094</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08214019026312186</v>
+        <v>-0.06197438292780082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1176815508748833</v>
       </c>
       <c r="E96" t="n">
-        <v>1.175123456275548</v>
+        <v>1.387167258912424</v>
       </c>
       <c r="F96" t="n">
-        <v>0.200623304922015</v>
+        <v>0.1217093280816443</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1524774625470614</v>
+        <v>-0.1594939900123711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1577825368559158</v>
       </c>
       <c r="E97" t="n">
-        <v>1.130294896455242</v>
+        <v>1.276746609673279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2906768730025123</v>
+        <v>0.2291255080671285</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1675101774668708</v>
+        <v>-0.05912666328806414</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1828131237415785</v>
       </c>
       <c r="E98" t="n">
-        <v>1.065196232863892</v>
+        <v>1.11714195706117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3026941400964793</v>
+        <v>0.3788683532568977</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1934244871805423</v>
+        <v>-0.07635387280281303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1916344432439758</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9849300618831707</v>
+        <v>1.042783477755431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3335664949914358</v>
+        <v>0.4545503604311805</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1982056553655703</v>
+        <v>-0.0996674807508308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1868966876433879</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8846926482630111</v>
+        <v>1.01497841394384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3632122994054519</v>
+        <v>0.3621424985384357</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1674058810311469</v>
+        <v>-0.1371824817362503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.175776659069008</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9297438291303297</v>
+        <v>0.8820401032398338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3665729623343336</v>
+        <v>0.3994214602219538</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2346087709572781</v>
+        <v>-0.296050960091524</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1654030067898118</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9308910899232928</v>
+        <v>0.8883729096265089</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3358585768946549</v>
+        <v>0.429740007142423</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.209686192263999</v>
+        <v>-0.1845025675210717</v>
       </c>
     </row>
   </sheetData>
